--- a/Hands-on Projects/Timesheet Migration/Timesheets/Lucky Manamela/Lucky Manamela May_week5.xlsx
+++ b/Hands-on Projects/Timesheet Migration/Timesheets/Lucky Manamela/Lucky Manamela May_week5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\scGradsGithub\Hands-on Projects\Timesheet Migration\Timesheets\Lucky Manamela\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824FCF37-BDE2-4205-AC47-EB25D815952D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B143F00B-AED5-4F62-B455-812567B8A5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1C8F8026-B005-4B08-94D3-371A77F74D8F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1C8F8026-B005-4B08-94D3-371A77F74D8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Apr" sheetId="10" r:id="rId1"/>
@@ -2188,13 +2188,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2210,21 +2225,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3173,7 +3173,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>39728</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>93132</xdr:rowOff>
+      <xdr:rowOff>96942</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8402,7 +8402,7 @@
   <dimension ref="A5:J159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:J149"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -8506,7 +8506,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>45779</v>
       </c>
@@ -12090,7 +12090,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A122" s="22">
         <v>45803</v>
       </c>
@@ -12288,7 +12288,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A128" s="22">
         <v>45804</v>
       </c>
@@ -12486,7 +12486,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A134" s="22">
         <v>45805</v>
       </c>
@@ -12684,7 +12684,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A140" s="22">
         <v>45806</v>
       </c>
@@ -16919,27 +16919,27 @@
       <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:15" ht="27.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="135" t="s">
+      <c r="B9" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="136"/>
-      <c r="D9" s="135" t="s">
+      <c r="C9" s="127"/>
+      <c r="D9" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="136"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="85" t="s">
         <v>65</v>
       </c>
@@ -16948,103 +16948,103 @@
       <c r="A10" s="80">
         <v>45566</v>
       </c>
-      <c r="B10" s="126" t="s">
+      <c r="B10" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126" t="s">
+      <c r="C10" s="128"/>
+      <c r="D10" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="126"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="79">
         <v>200</v>
       </c>
-      <c r="G10" s="133" t="s">
+      <c r="G10" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="134"/>
-      <c r="K10" s="134"/>
-      <c r="L10" s="134"/>
-      <c r="M10" s="134"/>
-      <c r="N10" s="134"/>
-      <c r="O10" s="134"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="80">
         <v>45566</v>
       </c>
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="126" t="s">
+      <c r="C11" s="131"/>
+      <c r="D11" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="126"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="79"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="80">
         <v>45566</v>
       </c>
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="79"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="80">
         <v>45566</v>
       </c>
-      <c r="B13" s="124"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
       <c r="F13" s="79"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="80">
         <v>45566</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="79"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="80">
         <v>45566</v>
       </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="79"/>
     </row>
     <row r="16" spans="1:15" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="80">
         <v>45566</v>
       </c>
-      <c r="B16" s="124"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="79"/>
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="127" t="s">
+      <c r="A17" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="134"/>
       <c r="F17" s="78">
         <f>SUM(F10:F16)</f>
         <v>200</v>
@@ -17060,16 +17060,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G10:O10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="A17:E17"/>
@@ -17079,6 +17069,16 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G10:O10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 D18" xr:uid="{517DF1E8-3052-48CF-9AE1-C19E6ECB6686}">
@@ -17159,7 +17159,7 @@
       <c r="E9" s="150"/>
       <c r="F9" s="150"/>
     </row>
-    <row r="10" spans="1:6" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A10" s="89" t="s">
         <v>76</v>
       </c>
@@ -17958,7 +17958,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="62" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="8:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="H62" s="111" t="s">
         <v>227</v>
       </c>
@@ -18029,12 +18029,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d277ce56-8de3-43c1-b9ce-ff5033dad840">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0b8b2123-f09a-47bf-9044-f6e489c8d7a1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18233,20 +18235,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d277ce56-8de3-43c1-b9ce-ff5033dad840">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0b8b2123-f09a-47bf-9044-f6e489c8d7a1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC3DB688-6D01-4CD1-8316-356E2BD32D0E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD5DDF60-FC2F-4437-B517-EC998A258B05}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d277ce56-8de3-43c1-b9ce-ff5033dad840"/>
+    <ds:schemaRef ds:uri="0b8b2123-f09a-47bf-9044-f6e489c8d7a1"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18271,12 +18274,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD5DDF60-FC2F-4437-B517-EC998A258B05}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC3DB688-6D01-4CD1-8316-356E2BD32D0E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d277ce56-8de3-43c1-b9ce-ff5033dad840"/>
-    <ds:schemaRef ds:uri="0b8b2123-f09a-47bf-9044-f6e489c8d7a1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
